--- a/InputFiles/CCDI/CCDIRowDataValidation_phs002518short.xlsx
+++ b/InputFiles/CCDI/CCDIRowDataValidation_phs002518short.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D6FB07-2C04-4D17-B6F4-6AB569EC6B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CA587B-6ADC-4EBF-AF63-32C38A77C48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>qa_participant_id</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>R10604930</t>
+  </si>
+  <si>
+    <t>R15388790</t>
+  </si>
+  <si>
+    <t>R15936760</t>
+  </si>
+  <si>
+    <t>R18088041</t>
   </si>
 </sst>
 </file>
@@ -354,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -385,6 +394,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
